--- a/IF_Input.xlsx
+++ b/IF_Input.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuan.nguyen\Projects\rwsif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34056278-01CF-4436-B162-F3C45CE359B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8104D75-692F-4BCE-8002-DFB9CD86FCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="738" activeTab="4" xr2:uid="{D97CDD91-3225-4036-A94C-C727C1F15EC9}"/>
+    <workbookView xWindow="5760" yWindow="3408" windowWidth="17280" windowHeight="8832" tabRatio="738" xr2:uid="{D97CDD91-3225-4036-A94C-C727C1F15EC9}"/>
   </bookViews>
   <sheets>
-    <sheet name="odh2" sheetId="2" r:id="rId1"/>
-    <sheet name="odh" sheetId="9" r:id="rId2"/>
-    <sheet name="odl" sheetId="4" r:id="rId3"/>
-    <sheet name="pah" sheetId="6" r:id="rId4"/>
-    <sheet name="pal" sheetId="8" r:id="rId5"/>
-    <sheet name="odh_guide" sheetId="1" r:id="rId6"/>
-    <sheet name="odl_guide" sheetId="3" r:id="rId7"/>
-    <sheet name="pah_guide" sheetId="5" r:id="rId8"/>
-    <sheet name="pal_guide" sheetId="7" r:id="rId9"/>
+    <sheet name="odh" sheetId="2" r:id="rId1"/>
+    <sheet name="odl" sheetId="4" r:id="rId2"/>
+    <sheet name="pah" sheetId="6" r:id="rId3"/>
+    <sheet name="pal" sheetId="8" r:id="rId4"/>
+    <sheet name="odh_guide" sheetId="1" r:id="rId5"/>
+    <sheet name="odl_guide" sheetId="3" r:id="rId6"/>
+    <sheet name="pah_guide" sheetId="5" r:id="rId7"/>
+    <sheet name="pal_guide" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">odh_guide!$A$1:$E$197</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">odl_guide!$A$1:$E$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">pah_guide!$A$1:$E$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">pal_guide!$A$1:$E$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">odh_guide!$A$1:$E$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">odl_guide!$A$1:$E$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">pah_guide!$A$1:$E$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">pal_guide!$A$1:$E$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="367">
   <si>
     <t>Name</t>
   </si>
@@ -1023,22 +1022,10 @@
     <t>Expected_Gross_Weight</t>
   </si>
   <si>
-    <t>REPACK</t>
-  </si>
-  <si>
-    <t>cp</t>
-  </si>
-  <si>
-    <t>rpk</t>
-  </si>
-  <si>
     <t>PAH</t>
   </si>
   <si>
     <t>250617COPIA-ECOLAB</t>
-  </si>
-  <si>
-    <t>20250620000000</t>
   </si>
   <si>
     <t>PAL</t>
@@ -1160,6 +1147,12 @@
   </si>
   <si>
     <t xml:space="preserve"> VN40010008 </t>
+  </si>
+  <si>
+    <t>20250620000000</t>
+  </si>
+  <si>
+    <t>PAD</t>
   </si>
 </sst>
 </file>
@@ -1573,10 +1566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CD735A-45CF-42CA-99A7-17D71D0664B8}">
-  <dimension ref="A1:I3"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1589,10 +1585,9 @@
     <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1617,11 +1612,8 @@
       <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>223</v>
       </c>
@@ -1647,7 +1639,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -1679,688 +1671,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB92746-E6FA-484E-9E2A-47B7397C38FC}">
-  <dimension ref="A1:GN3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:196">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="DI1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="DO1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="EB1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="EC1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="ED1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="EH1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="EJ1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="EK1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="EL1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="EM1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="EP1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="EQ1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="ER1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="ES1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU1" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="EV1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="EW1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="EX1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="EZ1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="FA1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="FB1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="FC1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="FD1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="FE1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="FF1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="FG1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="FH1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="FI1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="FJ1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="FK1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="FL1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="FM1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="FQ1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="FR1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="FS1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="FT1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="FU1" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="FY1" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="FZ1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="GA1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="GB1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="GD1" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="GE1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="GF1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="GG1" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="GH1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="GI1" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="GJ1" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="GK1" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="GL1" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="GM1" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="GN1" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:196">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G2" t="s">
-        <v>227</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>228</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>324</v>
-      </c>
-      <c r="GL2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:196">
-      <c r="A3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G3" t="s">
-        <v>227</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>229</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>229</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>323</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>325</v>
-      </c>
-      <c r="GL3">
-        <v>456</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61B5B39-9828-49D8-BED8-5980F93DA4E7}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2409,12 +1727,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3A9925-7AFF-42EB-AA45-3D9B84782C8A}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2450,13 +1771,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
         <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
         <v>228</v>
@@ -2468,7 +1789,7 @@
         <v>228</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2476,12 +1797,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C330B358-1262-4847-9536-D5EEEE3F24C6}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2531,16 +1855,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s">
         <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E2" s="7">
         <v>3</v>
@@ -2552,27 +1876,27 @@
         <v>228</v>
       </c>
       <c r="H2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
         <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E3" s="7">
         <v>2</v>
@@ -2584,27 +1908,27 @@
         <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
         <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E4" s="7">
         <v>14</v>
@@ -2616,27 +1940,27 @@
         <v>228</v>
       </c>
       <c r="H4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
         <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E5" s="7">
         <v>7</v>
@@ -2648,27 +1972,27 @@
         <v>228</v>
       </c>
       <c r="H5" t="s">
+        <v>344</v>
+      </c>
+      <c r="I5" t="s">
         <v>348</v>
       </c>
-      <c r="I5" t="s">
-        <v>352</v>
-      </c>
       <c r="J5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s">
         <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D6" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E6" s="7">
         <v>4</v>
@@ -2680,27 +2004,27 @@
         <v>228</v>
       </c>
       <c r="H6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
         <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
@@ -2712,27 +2036,27 @@
         <v>228</v>
       </c>
       <c r="H7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B8" t="s">
         <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E8" s="7">
         <v>9</v>
@@ -2744,27 +2068,27 @@
         <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B9" t="s">
         <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E9" s="7">
         <v>3</v>
@@ -2776,27 +2100,27 @@
         <v>228</v>
       </c>
       <c r="H9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
         <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E10" s="7">
         <v>3</v>
@@ -2808,27 +2132,27 @@
         <v>228</v>
       </c>
       <c r="H10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B11" t="s">
         <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E11" s="7">
         <v>4</v>
@@ -2840,27 +2164,27 @@
         <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B12" t="s">
         <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E12" s="7">
         <v>4</v>
@@ -2872,27 +2196,27 @@
         <v>228</v>
       </c>
       <c r="H12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I12" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B13" t="s">
         <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D13" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
@@ -2904,27 +2228,27 @@
         <v>228</v>
       </c>
       <c r="H13" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I13" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J13" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B14" t="s">
         <v>224</v>
       </c>
       <c r="C14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E14" s="7">
         <v>4</v>
@@ -2936,27 +2260,27 @@
         <v>228</v>
       </c>
       <c r="H14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B15" t="s">
         <v>224</v>
       </c>
       <c r="C15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E15" s="7">
         <v>4</v>
@@ -2968,27 +2292,27 @@
         <v>228</v>
       </c>
       <c r="H15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I15" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B16" t="s">
         <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D16" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E16" s="7">
         <v>4</v>
@@ -3000,27 +2324,27 @@
         <v>228</v>
       </c>
       <c r="H16" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I16" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
         <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D17" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E17" s="7">
         <v>4</v>
@@ -3032,13 +2356,13 @@
         <v>228</v>
       </c>
       <c r="H17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I17" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3046,12 +2370,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD304A0-4224-4BAA-8A7A-A850FFA5523D}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:E197"/>
   <sheetViews>
     <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A197"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6415,12 +5742,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0079B523-82CE-4ECE-A72D-E8C03BBEEFA7}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7950,12 +7280,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E1538F-A348-4352-B98B-B362DD610648}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E75"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9245,12 +8578,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411032E7-CF4A-43D9-BAB1-7D27C9E6A582}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/IF_Input.xlsx
+++ b/IF_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuan.nguyen\Projects\rwsif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6CF03D-B00E-450B-89F4-E6EE88AC39FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4CD7EC-5F3A-4ED0-90BC-34EFC5A8A59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="738" activeTab="4" xr2:uid="{D97CDD91-3225-4036-A94C-C727C1F15EC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="738" activeTab="1" xr2:uid="{D97CDD91-3225-4036-A94C-C727C1F15EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="odh" sheetId="2" r:id="rId1"/>
@@ -18,20 +18,23 @@
     <sheet name="pah" sheetId="6" r:id="rId3"/>
     <sheet name="pal" sheetId="8" r:id="rId4"/>
     <sheet name="sku" sheetId="12" r:id="rId5"/>
-    <sheet name="odh_guide" sheetId="1" r:id="rId6"/>
-    <sheet name="odl_guide" sheetId="3" r:id="rId7"/>
-    <sheet name="pah_guide" sheetId="5" r:id="rId8"/>
-    <sheet name="pal_guide" sheetId="7" r:id="rId9"/>
-    <sheet name="sku_guide" sheetId="9" r:id="rId10"/>
-    <sheet name="skc_guide" sheetId="10" r:id="rId11"/>
-    <sheet name="ssc_guide" sheetId="11" r:id="rId12"/>
+    <sheet name="skc" sheetId="13" r:id="rId6"/>
+    <sheet name="ssc" sheetId="14" r:id="rId7"/>
+    <sheet name="odh_guide" sheetId="1" r:id="rId8"/>
+    <sheet name="odl_guide" sheetId="3" r:id="rId9"/>
+    <sheet name="pah_guide" sheetId="5" r:id="rId10"/>
+    <sheet name="pal_guide" sheetId="7" r:id="rId11"/>
+    <sheet name="sku_guide" sheetId="9" r:id="rId12"/>
+    <sheet name="skc_guide" sheetId="10" r:id="rId13"/>
+    <sheet name="ssc_guide" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">odh_guide!$A$1:$E$197</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">odl_guide!$A$1:$E$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">pah_guide!$A$1:$E$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">pal_guide!$A$1:$E$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sku_guide!$A$1:$E$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">odh_guide!$A$1:$E$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">odl_guide!$A$1:$E$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">pah_guide!$A$1:$E$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">pal_guide!$A$1:$E$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">skc_guide!$A$1:$E$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">sku_guide!$A$1:$E$181</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="628">
   <si>
     <t>Name</t>
   </si>
@@ -2443,14 +2446,2410 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E1538F-A348-4352-B98B-B362DD610648}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:E75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="3">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="3">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="3">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="3">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="3">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="3">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="3">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="3">
+        <v>256</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="3">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="3">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="3">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="3">
+        <v>60</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="3">
+        <v>60</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="3">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="3">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="3">
+        <v>20</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="3">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="3">
+        <v>30</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="3">
+        <v>30</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="3">
+        <v>30</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="3">
+        <v>30</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="3">
+        <v>30</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="3">
+        <v>30</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="3">
+        <v>30</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="3">
+        <v>14</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="3">
+        <v>14</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="3">
+        <v>14</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="3">
+        <v>14</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="3">
+        <v>15</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="3">
+        <v>15</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" s="3">
+        <v>15</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="3">
+        <v>15</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="3">
+        <v>200</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="3">
+        <v>200</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="3">
+        <v>64</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="3">
+        <v>10</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="3">
+        <v>20</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="3">
+        <v>50</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="3">
+        <v>20</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="3">
+        <v>60</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="3">
+        <v>10</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="3">
+        <v>20</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="3">
+        <v>18</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="3">
+        <v>20</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="3">
+        <v>18</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="3">
+        <v>25</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="3">
+        <v>20</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="3">
+        <v>30</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="3">
+        <v>10</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="3">
+        <v>4</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" s="3">
+        <v>10</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E75" xr:uid="{23E1538F-A348-4352-B98B-B362DD610648}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411032E7-CF4A-43D9-BAB1-7D27C9E6A582}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="3">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="4">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="3">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="3">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="3">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="3">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="3">
+        <v>80</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="3">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="3">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="3">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="3">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="3">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="3">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="3">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="3">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="3">
+        <v>30</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="3">
+        <v>14</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="3">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="3">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="3">
+        <v>14</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="3">
+        <v>15</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="3">
+        <v>15</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="3">
+        <v>15</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="3">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="3">
+        <v>200</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="3">
+        <v>200</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="3">
+        <v>64</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" s="3">
+        <v>99</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="3">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" s="3">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="3">
+        <v>20</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="3">
+        <v>20</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="3">
+        <v>6</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="3">
+        <v>3</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="3">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="3">
+        <v>18</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="3">
+        <v>12</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="3">
+        <v>20</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="3">
+        <v>30</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="3">
+        <v>20</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="3">
+        <v>10</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="3">
+        <v>13</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="3">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E63" xr:uid="{411032E7-CF4A-43D9-BAB1-7D27C9E6A582}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE699706-B432-401C-906A-657D7C5C3FA8}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A48"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5542,19 +7941,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B91476-C98C-4876-BC99-30F477588C61}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="56.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7684,11 +10084,12 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E125" xr:uid="{B5B91476-C98C-4876-BC99-30F477588C61}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70E7945-C9B2-402E-890B-79F14E107F7E}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -7696,10 +10097,13 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -7973,8 +10377,8 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9820,12 +12224,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED20A986-3793-4A48-976D-FAF7867C9A17}">
   <sheetPr>
-    <tabColor theme="0" tint="-0.499984740745262"/>
+    <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9952,6 +12356,146 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0F2195-4CA7-47CC-97EB-1DABE3609B04}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EACF68-BB1F-4397-8A2F-D6938A507BC8}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD304A0-4224-4BAA-8A7A-A850FFA5523D}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -13323,7 +15867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0079B523-82CE-4ECE-A72D-E8C03BBEEFA7}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -14859,2400 +17403,4 @@
   <autoFilter ref="A1:E89" xr:uid="{0079B523-82CE-4ECE-A72D-E8C03BBEEFA7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E1538F-A348-4352-B98B-B362DD610648}">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:E75"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="3">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="3">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="3">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="3">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="3">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="3">
-        <v>80</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="3">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="3">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="3">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="3">
-        <v>256</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="3">
-        <v>50</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="3">
-        <v>60</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="3">
-        <v>60</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="3">
-        <v>60</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20" s="3">
-        <v>60</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="3">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="3">
-        <v>25</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="3">
-        <v>10</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="3">
-        <v>20</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C26" s="3">
-        <v>20</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28" s="3">
-        <v>20</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" s="3">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="3">
-        <v>10</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C33" s="3">
-        <v>30</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C34" s="3">
-        <v>30</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C35" s="3">
-        <v>30</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="3">
-        <v>30</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" s="3">
-        <v>30</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C38" s="3">
-        <v>30</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C39" s="3">
-        <v>30</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="3">
-        <v>30</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" s="3">
-        <v>14</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" s="3">
-        <v>14</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C47" s="3">
-        <v>14</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" s="3">
-        <v>14</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C49" s="3">
-        <v>15</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C50" s="3">
-        <v>15</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C51" s="3">
-        <v>15</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C52" s="3">
-        <v>15</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" s="3">
-        <v>200</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="3">
-        <v>200</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C55" s="3">
-        <v>64</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C57" s="3">
-        <v>10</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C58" s="3">
-        <v>20</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C59" s="3">
-        <v>50</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C60" s="3">
-        <v>20</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C61" s="3">
-        <v>3</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C62" s="3">
-        <v>60</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63" s="3">
-        <v>10</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C64" s="3">
-        <v>20</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" s="3">
-        <v>18</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" s="3">
-        <v>20</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C67" s="3">
-        <v>18</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C69" s="3">
-        <v>25</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C71" s="3">
-        <v>20</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C72" s="3">
-        <v>30</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" s="3">
-        <v>10</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C74" s="3">
-        <v>4</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C75" s="3">
-        <v>10</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E75" xr:uid="{23E1538F-A348-4352-B98B-B362DD610648}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411032E7-CF4A-43D9-BAB1-7D27C9E6A582}">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:E63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="3">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="3">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="3">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="4">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="3">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="3">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="3">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="3">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="3">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="3">
-        <v>80</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="3">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="3">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20" s="3">
-        <v>30</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="3">
-        <v>30</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="3">
-        <v>30</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="3">
-        <v>30</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="3">
-        <v>30</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="3">
-        <v>30</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C26" s="3">
-        <v>30</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="3">
-        <v>30</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C32" s="3">
-        <v>14</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33" s="3">
-        <v>14</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" s="3">
-        <v>14</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C35" s="3">
-        <v>14</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C36" s="3">
-        <v>15</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" s="3">
-        <v>15</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38" s="3">
-        <v>15</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="3">
-        <v>15</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="3">
-        <v>200</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="3">
-        <v>200</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C42" s="3">
-        <v>64</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C43" s="3">
-        <v>99</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C44" s="3">
-        <v>10</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C45" s="3">
-        <v>8</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="3">
-        <v>20</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C47" s="3">
-        <v>20</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C48" s="3">
-        <v>6</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C49" s="3">
-        <v>3</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C50" s="3">
-        <v>10</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C51" s="3">
-        <v>18</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C55" s="3">
-        <v>12</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C56" s="3">
-        <v>3</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C57" s="3">
-        <v>20</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C58" s="3">
-        <v>30</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C59" s="3">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C60" s="3">
-        <v>20</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C61" s="3">
-        <v>10</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C62" s="3">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C63" s="3">
-        <v>13</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E63" xr:uid="{411032E7-CF4A-43D9-BAB1-7D27C9E6A582}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>